--- a/slide/Week 06 - Simulasi Sejajar/Lat.6 KertasKerja.xlsx
+++ b/slide/Week 06 - Simulasi Sejajar/Lat.6 KertasKerja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\STAN\TABK Genap 2020-2021\TABK IPX\Week6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kemenkeu-my.sharepoint.com/personal/teuku_radarma_kemenkeu_go_id/Documents/PKN STAN/TABK Genap 2024/TABK-STAN/slide/Week 06 - Simulasi Sejajar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70E6B01-606D-4BCA-A750-11C03D4CF10C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C70E6B01-606D-4BCA-A750-11C03D4CF10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB404794-EF01-45AB-82E2-3CC34E966CCE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{BCC81991-631E-47F3-86B6-4CD996B1FF3A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{BCC81991-631E-47F3-86B6-4CD996B1FF3A}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTOH" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -468,17 +477,17 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -500,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -514,7 +523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D5" s="1">
         <v>43850</v>
       </c>
@@ -528,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D6" s="1">
         <v>43851</v>
       </c>
@@ -542,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D7" s="1">
         <v>43851</v>
       </c>
@@ -556,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D8" s="1">
         <v>43853</v>
       </c>
@@ -579,17 +588,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2573F694-19BB-495A-A4C0-05809DAF37F7}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -597,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -605,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -622,17 +631,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A69B47-0823-49F1-BBDC-CE53D4A229BB}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -648,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -666,16 +675,16 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -683,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -691,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -709,16 +718,16 @@
   <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="A1:XFD1048576"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -734,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -751,17 +760,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC5646C-AE6C-4EED-9F83-9F5F70FE5BF1}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:I1048558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -769,7 +778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -777,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -798,13 +807,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -820,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -841,13 +850,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -855,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -863,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -884,13 +893,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -898,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -906,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -927,13 +936,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -941,7 +950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -949,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
